--- a/Contribution.xlsx
+++ b/Contribution.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ca01c0acc71d382/Documents/Uni/Year 3/Group Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\OneDrive\Documents\Uni\Year 3\Group Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8E03C00-A032-45AB-8452-3D4DD1B6429D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{B8E03C00-A032-45AB-8452-3D4DD1B6429D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{125BF431-1653-4C66-AFD9-64EAB0729644}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -538,7 +538,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -597,7 +597,7 @@
         <v>0.2</v>
       </c>
       <c r="H2" s="2">
-        <f>SUM(C2:G2)</f>
+        <f t="shared" ref="H2:H13" si="0">SUM(C2:G2)</f>
         <v>1</v>
       </c>
     </row>
@@ -605,14 +605,27 @@
       <c r="A3" s="5">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="B3" s="6">
+        <v>43864</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.125</v>
+      </c>
       <c r="H3" s="2">
-        <f>SUM(C3:G3)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -625,7 +638,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2">
-        <f>SUM(C4:G4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -639,7 +652,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2">
-        <f>SUM(C5:G5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -653,7 +666,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2">
-        <f>SUM(C6:G6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -667,7 +680,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2">
-        <f>SUM(C7:G7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -681,7 +694,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2">
-        <f>SUM(C8:G8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -695,7 +708,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2">
-        <f>SUM(C9:G9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -709,7 +722,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2">
-        <f>SUM(C10:G10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -723,7 +736,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2">
-        <f>SUM(C11:G11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -737,7 +750,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2">
-        <f>SUM(C12:G12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -751,7 +764,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2">
-        <f>SUM(C13:G13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -764,27 +777,27 @@
       </c>
       <c r="C15" s="2">
         <f>SUM(C2:C13)/COUNT(C2:C13)</f>
+        <v>0.25</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" ref="D15:H15" si="1">SUM(D2:D13)/COUNT(D2:D13)</f>
         <v>0.2</v>
       </c>
-      <c r="D15" s="2">
-        <f t="shared" ref="D15:H15" si="0">SUM(D2:D13)/COUNT(D2:D13)</f>
-        <v>0.2</v>
-      </c>
       <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <f t="shared" si="1"/>
+        <v>0.22500000000000001</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <f t="shared" si="1"/>
+        <v>0.16250000000000001</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <f t="shared" si="1"/>
+        <v>0.16250000000000001</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/Contribution.xlsx
+++ b/Contribution.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\OneDrive\Documents\Uni\Year 3\Group Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{B8E03C00-A032-45AB-8452-3D4DD1B6429D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{125BF431-1653-4C66-AFD9-64EAB0729644}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{B8E03C00-A032-45AB-8452-3D4DD1B6429D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5A15CF71-F6CB-4FC8-8418-96EC47E81B4D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -538,7 +538,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -632,14 +632,27 @@
       <c r="A4" s="5">
         <v>4</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="B4" s="6">
+        <v>43871</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.15</v>
+      </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -664,7 +677,6 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
       <c r="H6" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -777,27 +789,27 @@
       </c>
       <c r="C15" s="2">
         <f>SUM(C2:C13)/COUNT(C2:C13)</f>
-        <v>0.25</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ref="D15:H15" si="1">SUM(D2:D13)/COUNT(D2:D13)</f>
-        <v>0.2</v>
+        <v>0.18333333333333335</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
-        <v>0.22500000000000001</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>0.16250000000000001</v>
+        <v>0.15833333333333333</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="1"/>
-        <v>0.16250000000000001</v>
+        <v>0.15833333333333333</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>

--- a/Contribution.xlsx
+++ b/Contribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\OneDrive\Documents\Uni\Year 3\Group Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{B8E03C00-A032-45AB-8452-3D4DD1B6429D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5A15CF71-F6CB-4FC8-8418-96EC47E81B4D}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{B8E03C00-A032-45AB-8452-3D4DD1B6429D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7716B27F-77C9-46AE-A585-AD0558B29AB2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -538,7 +538,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -659,14 +659,27 @@
       <c r="A5" s="5">
         <v>5</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="B5" s="6">
+        <v>43878</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.25</v>
+      </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -789,27 +802,27 @@
       </c>
       <c r="C15" s="2">
         <f>SUM(C2:C13)/COUNT(C2:C13)</f>
-        <v>0.26666666666666666</v>
+        <v>0.23750000000000002</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ref="D15:H15" si="1">SUM(D2:D13)/COUNT(D2:D13)</f>
-        <v>0.18333333333333335</v>
+        <v>0.18125000000000002</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
-        <v>0.23333333333333331</v>
+        <v>0.21875</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>0.15833333333333333</v>
+        <v>0.18124999999999999</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="1"/>
-        <v>0.15833333333333333</v>
+        <v>0.18124999999999999</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
   </sheetData>

--- a/Contribution.xlsx
+++ b/Contribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\OneDrive\Documents\Uni\Year 3\Group Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{B8E03C00-A032-45AB-8452-3D4DD1B6429D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7716B27F-77C9-46AE-A585-AD0558B29AB2}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{B8E03C00-A032-45AB-8452-3D4DD1B6429D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BADFB2A5-D7AA-4FC5-BCF0-A824BC6EFED6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -538,7 +538,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -686,13 +686,27 @@
       <c r="A6" s="5">
         <v>6</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="B6" s="6">
+        <v>43885</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.22500000000000001</v>
+      </c>
       <c r="H6" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -802,27 +816,27 @@
       </c>
       <c r="C15" s="2">
         <f>SUM(C2:C13)/COUNT(C2:C13)</f>
-        <v>0.23750000000000002</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ref="D15:H15" si="1">SUM(D2:D13)/COUNT(D2:D13)</f>
-        <v>0.18125000000000002</v>
+        <v>0.185</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
-        <v>0.21875</v>
+        <v>0.215</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>0.18124999999999999</v>
+        <v>0.185</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="1"/>
-        <v>0.18124999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
   </sheetData>

--- a/Contribution.xlsx
+++ b/Contribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\OneDrive\Documents\Uni\Year 3\Group Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{B8E03C00-A032-45AB-8452-3D4DD1B6429D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BADFB2A5-D7AA-4FC5-BCF0-A824BC6EFED6}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{B8E03C00-A032-45AB-8452-3D4DD1B6429D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E9DF78BC-3CFF-4729-A8F5-CB09606D4735}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -538,7 +538,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -713,14 +713,27 @@
       <c r="A7" s="5">
         <v>7</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="B7" s="6">
+        <v>43892</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.15</v>
+      </c>
       <c r="H7" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -816,27 +829,27 @@
       </c>
       <c r="C15" s="2">
         <f>SUM(C2:C13)/COUNT(C2:C13)</f>
-        <v>0.22500000000000001</v>
+        <v>0.22083333333333333</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ref="D15:H15" si="1">SUM(D2:D13)/COUNT(D2:D13)</f>
-        <v>0.185</v>
+        <v>0.1875</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
-        <v>0.215</v>
+        <v>0.21249999999999999</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>0.185</v>
+        <v>0.19583333333333333</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="1"/>
-        <v>0.19</v>
+        <v>0.18333333333333332</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="1"/>
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Contribution.xlsx
+++ b/Contribution.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\OneDrive\Documents\Uni\Year 3\Group Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{B8E03C00-A032-45AB-8452-3D4DD1B6429D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E9DF78BC-3CFF-4729-A8F5-CB09606D4735}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{B8E03C00-A032-45AB-8452-3D4DD1B6429D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9E280954-488D-4CC0-86CA-1EA247020C6B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -538,7 +538,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -740,14 +740,27 @@
       <c r="A8" s="5">
         <v>8</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="B8" s="6">
+        <v>43899</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.24</v>
+      </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -829,27 +842,27 @@
       </c>
       <c r="C15" s="2">
         <f>SUM(C2:C13)/COUNT(C2:C13)</f>
-        <v>0.22083333333333333</v>
+        <v>0.215</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ref="D15:H15" si="1">SUM(D2:D13)/COUNT(D2:D13)</f>
-        <v>0.1875</v>
+        <v>0.18642857142857142</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
-        <v>0.21249999999999999</v>
+        <v>0.21071428571428569</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>0.19583333333333333</v>
+        <v>0.19642857142857142</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="1"/>
-        <v>0.18333333333333332</v>
+        <v>0.19142857142857142</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
   </sheetData>

--- a/Contribution.xlsx
+++ b/Contribution.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\OneDrive\Documents\Uni\Year 3\Group Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ca01c0acc71d382/Documents/Uni/Year 3/Group Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{B8E03C00-A032-45AB-8452-3D4DD1B6429D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9E280954-488D-4CC0-86CA-1EA247020C6B}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{B8E03C00-A032-45AB-8452-3D4DD1B6429D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{616D481C-0CC9-491E-BFA6-A7203420D3FB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -538,7 +538,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -767,28 +767,54 @@
       <c r="A9" s="5">
         <v>9</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="B9" s="6">
+        <v>43906</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.2</v>
+      </c>
       <c r="H9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="B10" s="6">
+        <v>43913</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.2</v>
+      </c>
       <c r="H10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -842,27 +868,27 @@
       </c>
       <c r="C15" s="2">
         <f>SUM(C2:C13)/COUNT(C2:C13)</f>
-        <v>0.215</v>
+        <v>0.21166666666666664</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ref="D15:H15" si="1">SUM(D2:D13)/COUNT(D2:D13)</f>
-        <v>0.18642857142857142</v>
+        <v>0.18944444444444442</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
-        <v>0.21071428571428569</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>0.19642857142857142</v>
+        <v>0.19722222222222222</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="1"/>
-        <v>0.19142857142857142</v>
+        <v>0.1933333333333333</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="1"/>
-        <v>0.58333333333333337</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/Contribution.xlsx
+++ b/Contribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ca01c0acc71d382/Documents/Uni/Year 3/Group Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{B8E03C00-A032-45AB-8452-3D4DD1B6429D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{616D481C-0CC9-491E-BFA6-A7203420D3FB}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{B8E03C00-A032-45AB-8452-3D4DD1B6429D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D6CD03F8-DE01-4B48-8309-6E2635DCB83F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -538,7 +538,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -821,14 +821,27 @@
       <c r="A11" s="5">
         <v>11</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="B11" s="6">
+        <v>43920</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.2</v>
+      </c>
       <c r="H11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -868,27 +881,27 @@
       </c>
       <c r="C15" s="2">
         <f>SUM(C2:C13)/COUNT(C2:C13)</f>
-        <v>0.21166666666666664</v>
+        <v>0.21049999999999999</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ref="D15:H15" si="1">SUM(D2:D13)/COUNT(D2:D13)</f>
-        <v>0.18944444444444442</v>
+        <v>0.19049999999999997</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
-        <v>0.20833333333333331</v>
+        <v>0.20749999999999996</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>0.19722222222222222</v>
+        <v>0.19749999999999998</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="1"/>
-        <v>0.1933333333333333</v>
+        <v>0.19399999999999998</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
   </sheetData>
